--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H2">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.184902548821209</v>
+        <v>0.1972836666666667</v>
       </c>
       <c r="N2">
-        <v>0.184902548821209</v>
+        <v>0.591851</v>
       </c>
       <c r="O2">
-        <v>0.0818839854469018</v>
+        <v>0.08392655655245007</v>
       </c>
       <c r="P2">
-        <v>0.0818839854469018</v>
+        <v>0.08392655655245007</v>
       </c>
       <c r="Q2">
-        <v>0.7277099356128537</v>
+        <v>0.8371975711522223</v>
       </c>
       <c r="R2">
-        <v>0.7277099356128537</v>
+        <v>7.534778140370001</v>
       </c>
       <c r="S2">
-        <v>0.02103622805129006</v>
+        <v>0.02072353521609637</v>
       </c>
       <c r="T2">
-        <v>0.02103622805129006</v>
+        <v>0.02072353521609638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H3">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.87979576458356</v>
+        <v>1.922001</v>
       </c>
       <c r="N3">
-        <v>1.87979576458356</v>
+        <v>5.766003</v>
       </c>
       <c r="O3">
-        <v>0.8324664533377817</v>
+        <v>0.8176395357295954</v>
       </c>
       <c r="P3">
-        <v>0.8324664533377817</v>
+        <v>0.8176395357295954</v>
       </c>
       <c r="Q3">
-        <v>7.398200098004864</v>
+        <v>8.15624829029</v>
       </c>
       <c r="R3">
-        <v>7.398200098004864</v>
+        <v>73.40623461261001</v>
       </c>
       <c r="S3">
-        <v>0.2138629924018284</v>
+        <v>0.201895352422514</v>
       </c>
       <c r="T3">
-        <v>0.2138629924018284</v>
+        <v>0.2018953524225141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H4">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I4">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J4">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.193405610238643</v>
+        <v>0.03285833333333334</v>
       </c>
       <c r="N4">
-        <v>0.193405610238643</v>
+        <v>0.09857500000000001</v>
       </c>
       <c r="O4">
-        <v>0.0856495612153166</v>
+        <v>0.01397828222332608</v>
       </c>
       <c r="P4">
-        <v>0.0856495612153166</v>
+        <v>0.01397828222332608</v>
       </c>
       <c r="Q4">
-        <v>0.7611749273938825</v>
+        <v>0.1394383900277778</v>
       </c>
       <c r="R4">
-        <v>0.7611749273938825</v>
+        <v>1.25494551025</v>
       </c>
       <c r="S4">
-        <v>0.02200361514385106</v>
+        <v>0.003451582381252546</v>
       </c>
       <c r="T4">
-        <v>0.02200361514385106</v>
+        <v>0.003451582381252546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.79885071893769</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H5">
-        <v>5.79885071893769</v>
+        <v>12.73087</v>
       </c>
       <c r="I5">
-        <v>0.3785257424291203</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J5">
-        <v>0.3785257424291203</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.184902548821209</v>
+        <v>0.1985273333333334</v>
       </c>
       <c r="N5">
-        <v>0.184902548821209</v>
+        <v>0.5955820000000001</v>
       </c>
       <c r="O5">
-        <v>0.0818839854469018</v>
+        <v>0.08445562549462841</v>
       </c>
       <c r="P5">
-        <v>0.0818839854469018</v>
+        <v>0.08445562549462841</v>
       </c>
       <c r="Q5">
-        <v>1.072222278165279</v>
+        <v>0.842475224037778</v>
       </c>
       <c r="R5">
-        <v>1.072222278165279</v>
+        <v>7.582277016340002</v>
       </c>
       <c r="S5">
-        <v>0.03099519638434379</v>
+        <v>0.02085417537703427</v>
       </c>
       <c r="T5">
-        <v>0.03099519638434379</v>
+        <v>0.02085417537703428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.79885071893769</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H6">
-        <v>5.79885071893769</v>
+        <v>17.596475</v>
       </c>
       <c r="I6">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J6">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.87979576458356</v>
+        <v>0.1972836666666667</v>
       </c>
       <c r="N6">
-        <v>1.87979576458356</v>
+        <v>0.591851</v>
       </c>
       <c r="O6">
-        <v>0.8324664533377817</v>
+        <v>0.08392655655245007</v>
       </c>
       <c r="P6">
-        <v>0.8324664533377817</v>
+        <v>0.08392655655245007</v>
       </c>
       <c r="Q6">
-        <v>10.9006550209114</v>
+        <v>1.157165702802778</v>
       </c>
       <c r="R6">
-        <v>10.9006550209114</v>
+        <v>10.414491325225</v>
       </c>
       <c r="S6">
-        <v>0.3151099822970205</v>
+        <v>0.02864385303923922</v>
       </c>
       <c r="T6">
-        <v>0.3151099822970205</v>
+        <v>0.02864385303923923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.79885071893769</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H7">
-        <v>5.79885071893769</v>
+        <v>17.596475</v>
       </c>
       <c r="I7">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J7">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.193405610238643</v>
+        <v>1.922001</v>
       </c>
       <c r="N7">
-        <v>0.193405610238643</v>
+        <v>5.766003</v>
       </c>
       <c r="O7">
-        <v>0.0856495612153166</v>
+        <v>0.8176395357295954</v>
       </c>
       <c r="P7">
-        <v>0.0856495612153166</v>
+        <v>0.8176395357295954</v>
       </c>
       <c r="Q7">
-        <v>1.121530261978938</v>
+        <v>11.273480848825</v>
       </c>
       <c r="R7">
-        <v>1.121530261978938</v>
+        <v>101.461327639425</v>
       </c>
       <c r="S7">
-        <v>0.03242056374775611</v>
+        <v>0.2790576387567352</v>
       </c>
       <c r="T7">
-        <v>0.03242056374775611</v>
+        <v>0.2790576387567353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.28580010876254</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H8">
-        <v>5.28580010876254</v>
+        <v>17.596475</v>
       </c>
       <c r="I8">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J8">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.184902548821209</v>
+        <v>0.03285833333333334</v>
       </c>
       <c r="N8">
-        <v>0.184902548821209</v>
+        <v>0.09857500000000001</v>
       </c>
       <c r="O8">
-        <v>0.0818839854469018</v>
+        <v>0.01397828222332608</v>
       </c>
       <c r="P8">
-        <v>0.0818839854469018</v>
+        <v>0.01397828222332608</v>
       </c>
       <c r="Q8">
-        <v>0.9773579126696174</v>
+        <v>0.1927302803472223</v>
       </c>
       <c r="R8">
-        <v>0.9773579126696174</v>
+        <v>1.734572523125</v>
       </c>
       <c r="S8">
-        <v>0.02825291085428977</v>
+        <v>0.004770740969167927</v>
       </c>
       <c r="T8">
-        <v>0.02825291085428977</v>
+        <v>0.004770740969167929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.28580010876254</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H9">
-        <v>5.28580010876254</v>
+        <v>17.596475</v>
       </c>
       <c r="I9">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J9">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.87979576458356</v>
+        <v>0.1985273333333334</v>
       </c>
       <c r="N9">
-        <v>1.87979576458356</v>
+        <v>0.5955820000000001</v>
       </c>
       <c r="O9">
-        <v>0.8324664533377817</v>
+        <v>0.08445562549462841</v>
       </c>
       <c r="P9">
-        <v>0.8324664533377817</v>
+        <v>0.08445562549462841</v>
       </c>
       <c r="Q9">
-        <v>9.936224656887143</v>
+        <v>1.164460419272223</v>
       </c>
       <c r="R9">
-        <v>9.936224656887143</v>
+        <v>10.48014377345</v>
       </c>
       <c r="S9">
-        <v>0.2872307737218111</v>
+        <v>0.02882442249960915</v>
       </c>
       <c r="T9">
-        <v>0.2872307737218111</v>
+        <v>0.02882442249960916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.28580010876254</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H10">
-        <v>5.28580010876254</v>
+        <v>18.369336</v>
       </c>
       <c r="I10">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J10">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.193405610238643</v>
+        <v>0.1972836666666667</v>
       </c>
       <c r="N10">
-        <v>0.193405610238643</v>
+        <v>0.591851</v>
       </c>
       <c r="O10">
-        <v>0.0856495612153166</v>
+        <v>0.08392655655245007</v>
       </c>
       <c r="P10">
-        <v>0.0856495612153166</v>
+        <v>0.08392655655245007</v>
       </c>
       <c r="Q10">
-        <v>1.022303395634705</v>
+        <v>1.207989986770666</v>
       </c>
       <c r="R10">
-        <v>1.022303395634705</v>
+        <v>10.871909880936</v>
       </c>
       <c r="S10">
-        <v>0.02955216950565433</v>
+        <v>0.02990192983608401</v>
       </c>
       <c r="T10">
-        <v>0.02955216950565433</v>
+        <v>0.02990192983608402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.299276453932303</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H11">
-        <v>0.299276453932303</v>
+        <v>18.369336</v>
       </c>
       <c r="I11">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J11">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.184902548821209</v>
+        <v>1.922001</v>
       </c>
       <c r="N11">
-        <v>0.184902548821209</v>
+        <v>5.766003</v>
       </c>
       <c r="O11">
-        <v>0.0818839854469018</v>
+        <v>0.8176395357295954</v>
       </c>
       <c r="P11">
-        <v>0.0818839854469018</v>
+        <v>0.8176395357295954</v>
       </c>
       <c r="Q11">
-        <v>0.05533697913425596</v>
+        <v>11.768627387112</v>
       </c>
       <c r="R11">
-        <v>0.05533697913425596</v>
+        <v>105.917646484008</v>
       </c>
       <c r="S11">
-        <v>0.001599650156978187</v>
+        <v>0.291314227974017</v>
       </c>
       <c r="T11">
-        <v>0.001599650156978187</v>
+        <v>0.291314227974017</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.299276453932303</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H12">
-        <v>0.299276453932303</v>
+        <v>18.369336</v>
       </c>
       <c r="I12">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J12">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.87979576458356</v>
+        <v>0.03285833333333334</v>
       </c>
       <c r="N12">
-        <v>1.87979576458356</v>
+        <v>0.09857500000000001</v>
       </c>
       <c r="O12">
-        <v>0.8324664533377817</v>
+        <v>0.01397828222332608</v>
       </c>
       <c r="P12">
-        <v>0.8324664533377817</v>
+        <v>0.01397828222332608</v>
       </c>
       <c r="Q12">
-        <v>0.5625786105415301</v>
+        <v>0.2011952551333333</v>
       </c>
       <c r="R12">
-        <v>0.5625786105415301</v>
+        <v>1.8107572962</v>
       </c>
       <c r="S12">
-        <v>0.01626270491712177</v>
+        <v>0.004980278370049188</v>
       </c>
       <c r="T12">
-        <v>0.01626270491712177</v>
+        <v>0.004980278370049189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.299276453932303</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H13">
-        <v>0.299276453932303</v>
+        <v>18.369336</v>
       </c>
       <c r="I13">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J13">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.193405610238643</v>
+        <v>0.1985273333333334</v>
       </c>
       <c r="N13">
-        <v>0.193405610238643</v>
+        <v>0.5955820000000001</v>
       </c>
       <c r="O13">
-        <v>0.0856495612153166</v>
+        <v>0.08445562549462841</v>
       </c>
       <c r="P13">
-        <v>0.0856495612153166</v>
+        <v>0.08445562549462841</v>
       </c>
       <c r="Q13">
-        <v>0.05788174520283419</v>
+        <v>1.215605097061333</v>
       </c>
       <c r="R13">
-        <v>0.05788174520283419</v>
+        <v>10.940445873552</v>
       </c>
       <c r="S13">
-        <v>0.001673212818055108</v>
+        <v>0.03009043015156617</v>
       </c>
       <c r="T13">
-        <v>0.001673212818055108</v>
+        <v>0.03009043015156617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.861032</v>
+      </c>
+      <c r="I14">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J14">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1972836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.591851</v>
+      </c>
+      <c r="O14">
+        <v>0.08392655655245007</v>
+      </c>
+      <c r="P14">
+        <v>0.08392655655245007</v>
+      </c>
+      <c r="Q14">
+        <v>0.1881449611368889</v>
+      </c>
+      <c r="R14">
+        <v>1.693304650232</v>
+      </c>
+      <c r="S14">
+        <v>0.004657238461030443</v>
+      </c>
+      <c r="T14">
+        <v>0.004657238461030445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.861032</v>
+      </c>
+      <c r="I15">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J15">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.922001</v>
+      </c>
+      <c r="N15">
+        <v>5.766003</v>
+      </c>
+      <c r="O15">
+        <v>0.8176395357295954</v>
+      </c>
+      <c r="P15">
+        <v>0.8176395357295954</v>
+      </c>
+      <c r="Q15">
+        <v>1.832968788344</v>
+      </c>
+      <c r="R15">
+        <v>16.496719095096</v>
+      </c>
+      <c r="S15">
+        <v>0.04537231657632904</v>
+      </c>
+      <c r="T15">
+        <v>0.04537231657632905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.861032</v>
+      </c>
+      <c r="I16">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J16">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03285833333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.09857500000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.01397828222332608</v>
+      </c>
+      <c r="P16">
+        <v>0.01397828222332608</v>
+      </c>
+      <c r="Q16">
+        <v>0.03133624771111112</v>
+      </c>
+      <c r="R16">
+        <v>0.2820262294000001</v>
+      </c>
+      <c r="S16">
+        <v>0.0007756805028564217</v>
+      </c>
+      <c r="T16">
+        <v>0.0007756805028564218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.861032</v>
+      </c>
+      <c r="I17">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J17">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1985273333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.5955820000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.08445562549462841</v>
+      </c>
+      <c r="P17">
+        <v>0.08445562549462841</v>
+      </c>
+      <c r="Q17">
+        <v>0.1893310178471111</v>
+      </c>
+      <c r="R17">
+        <v>1.703979160624</v>
+      </c>
+      <c r="S17">
+        <v>0.004686597466418801</v>
+      </c>
+      <c r="T17">
+        <v>0.004686597466418802</v>
       </c>
     </row>
   </sheetData>
